--- a/Infrastructures/Infrastructure.SeedData/Data/InbodyStandard.xlsx
+++ b/Infrastructures/Infrastructure.SeedData/Data/InbodyStandard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ducdo\source\repos\Gym\Infrastructures\Infrastructure.SeedData\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103E29C5-9251-433D-A067-00FBF7F3E0C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8802E5-552B-49A6-870A-8CB0C52A941D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5680D366-16F3-4700-B2EE-9AF7CD96B4D2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>BodyWaterMax</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>SkeletalMuscleMassMax</t>
+  </si>
+  <si>
+    <t>UserId</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30265E25-9B57-487F-9E99-2A0A9A0BBA89}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +446,7 @@
     <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -480,8 +483,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>35.700000000000003</v>
       </c>
@@ -517,6 +523,9 @@
       </c>
       <c r="L2" s="1">
         <v>33</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Infrastructures/Infrastructure.SeedData/Data/InbodyStandard.xlsx
+++ b/Infrastructures/Infrastructure.SeedData/Data/InbodyStandard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ducdo\source\repos\Gym\Infrastructures\Infrastructure.SeedData\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\Study\Gym\gym\Infrastructures\Infrastructure.SeedData\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8802E5-552B-49A6-870A-8CB0C52A941D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D99CF2E-A6B2-4E32-B306-365C61E831A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5680D366-16F3-4700-B2EE-9AF7CD96B4D2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5680D366-16F3-4700-B2EE-9AF7CD96B4D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>BodyWaterMax</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>UserId</t>
+  </si>
+  <si>
+    <t>Height</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30265E25-9B57-487F-9E99-2A0A9A0BBA89}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,11 +445,12 @@
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -484,10 +488,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>35.700000000000003</v>
       </c>
@@ -525,6 +532,9 @@
         <v>33</v>
       </c>
       <c r="M2">
+        <v>1.7</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
     </row>
